--- a/biology/Botanique/Liste_de_floraisons_d'Arum_titan_en_culture/Liste_de_floraisons_d'Arum_titan_en_culture.xlsx
+++ b/biology/Botanique/Liste_de_floraisons_d'Arum_titan_en_culture/Liste_de_floraisons_d'Arum_titan_en_culture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_floraisons_d%27Arum_titan_en_culture</t>
+          <t>Liste_de_floraisons_d'Arum_titan_en_culture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La spectaculaire floraison de l'Arum titan (Amorphophallus titanum) est souvent très médiatisée lorsqu'elle se produit dans un jardin botanique. Peu fréquente dans la nature, elle est restée rare en culture jusqu'à la fin des années 1990 ; au début du XXIe siècle, grâce à l'amélioration des techniques de culture de la plante, plusieurs floraisons sont signalées chaque année ex situ.
-La première floraison en serre a été obtenue aux Jardins botaniques royaux de Kew en Angleterre en 1889, à partir d'une plante issue des graines récoltées par Beccari en 1878, année de la découverte de l'espèce, et envoyées en Italie[1],[2]. Depuis lors et jusqu'en 2013, quelque 200 floraisons ont été observées sur une septantaine de plantes sous serre, principalement dans des jardins botaniques européens, nord-américains et australiens[3],[4].
+La première floraison en serre a été obtenue aux Jardins botaniques royaux de Kew en Angleterre en 1889, à partir d'une plante issue des graines récoltées par Beccari en 1878, année de la découverte de l'espèce, et envoyées en Italie,. Depuis lors et jusqu'en 2013, quelque 200 floraisons ont été observées sur une septantaine de plantes sous serre, principalement dans des jardins botaniques européens, nord-américains et australiens,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_floraisons_d%27Arum_titan_en_culture</t>
+          <t>Liste_de_floraisons_d'Arum_titan_en_culture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste ci-dessous répertorie les floraisons d’Arum titan observées en culture et faisant l'objet d'une mention dans la presse ou sur le site internet de l'institution où elles ont eu lieu[note 1]. Sont également mentionnés, lorsqu'ils sont publiés, la hauteur de l'inflorescence, le poids du tubercule avant la floraison et le diamètre de la spathe, ainsi que le nom donné à la plante.
 </t>
